--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/2_Adıyaman_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/2_Adıyaman_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6780074A-7902-4E5F-BA22-9346FE788EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEEDB674-A5E4-4F9A-AAA0-330820105B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{DF748B1F-4B7A-43AB-9470-37EFA8AA49D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{4D4588A6-3436-4506-9559-873F2542ED97}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -927,14 +927,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{6A340D00-20D8-4839-8AAD-DCEBDAE87F12}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{30292270-5E59-42AB-97EF-131E372A32A7}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6788C2C2-258E-40E2-A255-2D20A468D600}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{11061616-815E-40AC-9B09-2554816A5A27}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{C8713238-6F09-4929-B5B9-3D108097B5D5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{1268AF4B-2649-4C89-892F-24C933FE658D}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{026FBABA-EED2-4215-AEE5-6D65FDC0271D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{0263FA06-8FAC-4195-B984-CEAF87413858}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{93ACF2C6-23A7-48C9-969B-67FCB1A4758C}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1CC58C22-6789-41DD-9114-645A3A873953}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E242AD2D-6DF4-44DE-96D8-5751591FCA33}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{D044F950-C6DB-4E3A-8E85-98D6EB25314E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{ADAA5C51-34D3-42F4-91AF-611973E3473A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{64132CDF-C99C-439E-920B-81B537694D3D}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{3EF783DF-F6E8-4884-864D-4298D1F67A15}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D8EB8D67-B06E-4021-AA51-DDBC5D09C223}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1304,7 +1304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0621A6-CE4D-4078-9092-CD173C696296}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC1AE12-1A19-4D8E-8E49-893C668CD824}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2581,18 +2581,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7AAB6DB3-BE1E-4D90-94C8-EC670581C9AF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{633C8301-9D79-4BBD-BAD4-5A491AE2024E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{49A6DB1D-0B58-4315-8D04-F53CF0A0AB22}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{739D3CCB-5F24-428B-AC29-45FCB39B6525}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74B226FE-56AF-4E71-B070-E303FE14E4E8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D242833C-4218-4F30-B900-C718507A70A5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F78E93FA-D036-4AB6-9FD9-37E8CC523621}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0D790D1-3A1E-4758-88FC-367225FDFBE4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5DB2B646-B232-4621-BCDE-5A7532F8BC4A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F499C26-FCA0-49CE-8828-B64704E395CF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{49A0FA18-07D7-4DF6-A596-38FA4A802145}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3263E20B-613C-45F1-8D43-5C4762CF5327}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06972BA6-6178-4447-AA1F-995C00DC4613}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E28F786-0EAC-4204-9276-72B96C907E9A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9A211FAB-40A4-4CC9-8C5A-7104950E35F2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{32014A3A-E800-4F20-BAA4-D3CC51300CF0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C0184EA6-9019-4268-B666-D83E849A28F6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{814B2249-5D63-44BD-9A93-C131E82CED1D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92E62CE9-9F77-4DF2-ABF0-3CC9F8EA0341}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{83742D9B-6B44-4F1A-A9BC-217EB6F43EDD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61DDCBC9-B08A-47CA-858B-389852C728D4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{883760B4-9175-4FE7-9B7B-2F29FBB36E1F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF185954-12D0-4B6F-96BC-44ECB431E302}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E14EB15-BD52-4776-9CC8-E03C14C6D304}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2605,7 +2605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FD538D-2001-4183-B7BA-71CB80329A8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35344448-FF50-4B07-AAE6-927980E617CD}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3865,18 +3865,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C41D97E3-E35F-4C31-BEF3-5895A817162B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{822D9EBA-35C8-4B13-92AC-BCA5E9D54443}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D133B670-C2CF-4942-BA86-55E52EA761B0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{712FC584-B785-4ABE-93A9-50B55D4B53C7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B1BB7EB-FAA9-439D-BFB2-C750A20C3687}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3F15A5F4-E279-4B6A-ADBE-B25E7E0BCBB1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED104E7D-AB84-4228-B73A-AAEC4371741E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F3CF5F8-0F72-4802-B3A7-11A673F120EA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{26EBC6B0-197A-417F-B909-FEA87C6BF979}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F9848A49-2791-4325-83A6-F45148C9574A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A94FBB03-340B-408A-8A01-B28A35A13194}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E341430-E18D-41B4-BBE9-F33D4E534EE8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73125AF0-BB0D-40EF-AFCC-C6990C10D953}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{246BAA83-FAFA-4D98-BA39-F067F6E9A10B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4C763CE0-8A54-43E0-8E08-D1C410C11010}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C4138AAF-A558-4347-971C-8D791B189C65}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F2C13D9-C394-4AC1-99C2-B08B15B79BC0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BD640A69-F8ED-4DBB-87C9-0793913BBC46}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7D935D9-75A8-4319-9C06-6B7A47093F4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E725B090-CF9C-44B6-9EFE-BB75692D677D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A22CB493-BCF5-4EE7-A4D7-16A13F4E6290}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EDC58837-59BA-43F1-89B5-4C9E085937AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD868347-0819-4BF7-BCE0-4E8DB2302BBB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4964CB80-308F-4113-8E5C-DAFB2CE4F804}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3889,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCC9282-3530-4609-8769-FA1B9B538521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463ABEF6-7D01-413B-B60F-32E925575AEB}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5149,18 +5149,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{84B31B95-D3F4-4826-84DB-6810F0A7AB0B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6DD897EE-7531-48D5-BDDA-360716CE2076}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4E7CC62E-DD30-416E-8E9F-FA65BD841EC4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3AD015B3-D37B-4562-B3A9-C97D25E98BCE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB7DDF2E-1952-4354-A89C-AD19611E514B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1764DA6F-378D-4B39-84FB-E5DA89E899BE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52214FAA-9531-4F3C-9392-584004823AA7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E97957BB-0F3D-4B6C-8607-6BD5296E553C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4236245-CFC7-417B-9226-B792B21B1215}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4CA24596-F489-42CA-A794-FC83C68BE448}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0285C7D9-0368-4203-BE9C-1BAC8C63036D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D72F899-54CD-4844-9F3D-65B627A08F79}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ABA39F8D-D268-4D83-96F9-9038BB908A94}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7B7186C-5122-4047-8FA9-F598996A7D50}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6E075751-52D7-47B6-98E7-813ED8296573}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B1ACE7EA-0BB2-4B57-A71A-7830FC24340A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F201D53-FDA0-49AB-9F06-87A83B07F81B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{73548FFA-1483-4461-B06E-BA1A776DA7D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DEAB06E7-E9BC-4748-8194-BF2C58B66CF0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6793A123-C599-4F3F-A279-1FB34E622AA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B0C361F-EE8A-4C7F-BEAC-61B2DE02C92A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B56B9BF-B44B-4C7B-8998-0B542410481F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45A26097-B95F-46EE-AD59-058C579C9643}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C92BE471-9CF2-41A1-9013-F0F7F9B58C81}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5173,7 +5173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A11FBE-1D10-479F-9B1F-B771A1B51F7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04D2C12-10C7-4487-864D-D6806CDEFA05}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6429,18 +6429,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A593D822-278B-498F-9B13-616CD151A3D9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5A4DB4E-C7FE-4CF6-83E0-8ACC0E67156F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C77D9E34-DD69-4276-9A08-A3DA7B2AF5E7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E295498F-E35E-4E6C-9037-84AAAFCF2ABC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EFD091C6-D307-46C7-A1F7-BF6B65D8E89B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{41D6140F-9CB5-4912-88C1-B4567E305A1F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31AB0CB7-2CFB-4815-A586-311024D9D533}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB999E99-5739-438F-8FD8-F10A7AA41408}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AFDE2CA2-B7DC-4A67-9859-C7DFA08DE1DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3EA586EE-24DF-4FD6-8BB3-E599C93A285C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{720D0CAA-AACE-4ABF-B30F-ACC0A9DA0448}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{696F3D14-3EA8-4354-A578-E530C595E8D5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14D8D04D-A391-45CC-B34D-005C22F52265}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35E3C560-498E-4861-96C2-2E808AD5726E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F682D33E-D772-42A5-B79C-36F7A2CBBF6C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4DC199D7-8199-4C31-9014-B388CBE8D875}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7C54449-F47A-4399-B9FE-ACAB27F66208}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5FAD7E23-EBCA-4C57-A44E-C8218C1CB9A6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A1B2295-F66A-4897-AD37-E719C19E915A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{135A8D3F-AFAC-4202-B1FE-D390ACDBA312}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B8C51ED-4E96-45CC-AB2D-6D45FB615EF0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8F041130-A75C-417F-ABEC-D1E7E52E3DAE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BEC512C2-F9A8-4A4D-A92F-ACF783BC57EE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5F2B10B-6AFA-4956-8A48-810BAF68FBD7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6453,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77452044-65FC-4988-B616-0418AA1AA869}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F8FF61-FD18-453E-9667-8EFD0A55030B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7728,18 +7728,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A80FD525-C09B-4FAC-9DB3-67518187F5C8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55435274-6024-45A1-8114-304771BAEC33}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{296667D6-9388-4A2F-BD48-1B98FAED0398}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{05F40D4B-B8A3-45E0-AE2E-6A06F821F852}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC878822-F549-4252-AAF1-F26680CB4054}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{65C40C99-4686-4AD0-AFA5-57FC4BED6D70}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BDD8F1B-ADAC-4609-9391-B03C4E9B57BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{59D7F01A-2A63-49AF-A4B3-EDB462842335}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A0BA9013-A230-41A6-B4CA-A1B90F4D15EA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3FDFE09-B4F6-4316-822A-FFA0C297648C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{001E9DAC-3889-440C-B8E9-E3373C64706D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C0A4192-99B5-4350-A7C9-5522F78FF8B1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1B993B1-1244-4B98-9B20-B734B408D09C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57B9C1EE-FD8A-4A21-ADAD-E821DA4592B6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{31E37609-F411-48E9-BB8E-C000AE1BB602}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3CC4CF8F-7CF4-43F0-B337-DE77F14443AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AEA57840-1A20-4F06-9108-0B5EB9E4D870}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A638680-1798-46AC-99B5-89DD09D4964A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{559FA497-7BD9-4E5D-BD73-488EEF51CB5A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8727C539-4A53-4707-A66E-038555B65CBF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{710EE1AA-19EB-41C5-A6D1-DE7B90332535}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6DD5F76C-412F-427A-804E-DE5F4CA98ACD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{953DF5A0-1DCA-476E-9B3A-05DA0B6427A6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{250EC69A-9A92-46B1-B7D2-A7182DB0CBD2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7752,7 +7752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653F6FC6-09D8-4F18-9D62-2C66BC08CB47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96B11A6-4174-453E-95ED-8CE87CA6D5DD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9031,18 +9031,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7585CD4-EFFA-4395-9594-7AF036F3EDE1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D35EC5D4-40C9-43CF-A5F8-32308F49113E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4AF0431C-22DF-4E7D-A3D4-44E8954CD6F5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FB8AD52F-2DBA-45CE-998D-C4DAE2A65B8C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54B3C615-CE08-4018-8938-D9EDE227D05B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E811FC10-04FD-4DF8-AA6B-B605C4E895B2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D7A1032-AF57-49BE-AD29-262AC1816067}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F6FE956-56BF-482D-818F-B86582453A59}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C5980183-78E7-4851-8513-25089CFDBFBB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F46867E8-F462-4A1A-ABAB-9FFA165C3E78}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A1EC7A1-C6F1-4810-B268-6F7CACB699FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64B4583E-8F30-4F4C-BC2D-2950652C12B0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10C57A9C-1EBA-4F6D-9179-28DF167F993C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10DA140F-B06D-4D69-98AB-D557E57733EC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EC634631-7567-4DF7-BDEC-6410AD9E69C3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0A32D3A2-B168-428D-B661-5CCA8FC5B6A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C822E9E0-E31E-4760-B41A-BC9653206659}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA885250-5F48-4DD0-B035-85CBC4D66D4C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2195AD88-36F7-4C8E-BBF9-9C9B4724C75A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16E98865-E380-4761-93C0-EBA69B68758D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5042FB6A-5A7D-4144-9EC4-A57022AB899C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5E21E0D7-6AA1-4C1E-B2B5-D6995639814C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E497687-0D8A-4D89-85FF-DCD47BC332C2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E9D743C3-90C0-4612-9FF3-8F642CFAC839}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9055,7 +9055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E3DCB4-0A5B-44BB-8AE7-2DDD2E079C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8AC1E5-9F5D-49DF-AC97-BDA4F9E8E7AF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10330,18 +10330,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C3643E0-7BC2-4EB5-A256-DD027875689D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CCA0EEB-F030-4928-A9C3-38DEE247D0FF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8B41DCDB-B6E2-4015-BD22-C6979E2D5EDE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{15FB10D0-93E7-4158-908D-14FA0D0E6446}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F72BBA9A-A21B-40A8-BB54-6F3D969640E3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{064AD370-9783-449D-A0FF-8982FA51FD18}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8376237-D855-4F21-9744-8E7E28967874}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5C0EB05-5031-4E8D-9D59-558F2FAF2C1B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{292AADEB-83F6-4D6C-8485-76FC8103317F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A9C8482-03F6-4F1C-953C-50424D890694}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED8780EA-8D80-49CB-AE58-E9AD90FFF669}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{35E446EE-9020-4D2C-B92E-C715E4B09F0A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{877CE008-5CB5-41A6-AEA7-E91539514676}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87C569B4-3336-419E-AE7D-B7351E23975D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A8339F0A-3D99-4F2C-8CCC-980CB25B00A9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4000FCBE-6121-4FF5-A00B-13986817C28F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4115F397-7722-46B4-B67D-B10DF086C693}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D775A69-1B05-41AA-BDD0-B5F284FE213A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9FBFA845-EF42-41AA-8FF5-493BEA4DFE66}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09B8A7F9-0384-45FB-A1AE-B35BF17125A4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3214AF8-AA65-4FC4-B0D8-48F0468C617C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2949935-FD6C-4A25-9965-A450917C402F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD6DE9D1-8C3E-4821-97BB-322DB272377C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EEEF813D-FDDB-40DA-A3FE-7276011614C7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10354,7 +10354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D50369D-C882-43E6-ABDC-A13C2D39E9CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1C63F1-E33D-4928-A01B-69C221261161}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11625,18 +11625,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{042CDC89-1B0A-4351-A738-FB119796D1A4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FB1733C-36F0-4305-9E0F-1363BCE8F93E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B2D05113-F8D5-402B-AE0A-9631592374EA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{555FFDBC-FC58-4374-B46B-AE82A8ECC00C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC10F4F9-6234-4617-8FA2-3099E7266737}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B2B8BB4-0B0C-4191-AB5E-CD7F3C46DFC8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5DAD3FBD-1B30-4664-9621-F0607468132F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A7E85CE-D54B-4BD7-AD18-F4AAE428D918}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87E2C2E1-5F81-437D-AA30-2CE40D016C33}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7E9999B2-4898-40C9-B2A1-505A31E26A90}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D3E821E-1B9D-415D-B5C9-BF39AAF3D3DE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{139125C9-4266-4ED5-AB64-82119A789F8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E0A5569-1E5B-4378-A542-1C0725A4ADB1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA82F66C-D1DE-496F-8186-976A38E47887}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9CBC68C8-8076-4FB9-956B-E1F799F1310B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FEC1A1F3-3FA7-4839-831C-D972652C4298}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56AFB312-4363-43F4-B999-98C2E00EA061}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0B506BCA-D2F4-445E-A1DB-6D36E9AAC54B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D6769887-2412-40B4-B58B-3B1851C9FDE9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5C91D00-80C4-4A1E-8D8E-E83CB30FDAF6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C4F885FD-4BAD-4B50-8D8C-CB472FEE517F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4AAA027C-7968-4DC1-978F-98E4B3C985EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03B7CB61-9BC7-4DB0-A41B-EB2C34E7F440}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E125947D-679E-46E1-9D09-E74D1409AE6F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11649,7 +11649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF385B3D-A788-401D-8A30-FE694BFD9E08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368DFB8E-962F-4F84-ADD7-F4D9B5F926AF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12912,18 +12912,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CBAC0DFF-52AE-4FBB-8AD5-4E42F55A32C1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC835CEF-0088-4492-8003-740636467F12}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{51BCA54D-CE96-4817-AA9A-1087542693D3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A743B1AC-BA7F-4A5F-AC83-F3C007ECA84B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60C68FFE-E545-4E4E-842E-2AC4CEE32EE4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2BD83E19-773E-4549-8616-B77D5535A6C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C68430B9-5C99-4546-9546-E8FB1E048D6A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E1FA5B9-7508-4289-AD26-DFD1B76A8301}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{287710CF-CF20-4786-B2FC-F559A2C78B66}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6B0FE2D-45BE-4252-8782-76F48002B5B1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2B532A6-2FD1-41A9-87C8-356A6CA67F4A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{14E8667B-CEE3-4F77-B27B-B8220F9ACD8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77E9346F-0D52-4360-8FE3-6A533337B9B8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8BDC436-BB00-47AB-8F38-DD13BF85FE35}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B6EAD589-DD0B-4D1F-B16F-09A9DF84611A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ABF6DB89-6F76-42C9-93CE-5566C3DE0C43}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{11CDFD26-4C06-4FC6-B977-F89E372F8506}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A19E9268-0580-4B36-A10C-0F6AD83108CC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4A48A1A-D8B2-489C-AFFE-8A51936CC70E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B291C145-47B4-4524-97A5-2756591ED2EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ABF5AEA4-F17C-46B0-B6DD-302DC88462EF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F62B3A6D-6FB0-4E48-8DEC-C70E7E4606B7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{983CFF4A-CB5B-4DEA-AC0E-4E2582E0347E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7DA802EC-5F88-4B55-9AF0-EFB54852B5BE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12936,7 +12936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0E3E76-BEF6-4618-AC21-44E0252A5B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD0DA29-9FEB-4DE4-A869-60392862C9E5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14199,18 +14199,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77229F00-454F-4727-B4E1-D374515B1AB6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D55CD677-369B-4F31-AE99-E0F5EEBB3BE9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C5E698C7-1F46-4B98-9335-185E8C0C139E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CF253D7E-059B-48F4-A906-03545892C4B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{785B19D0-7314-4E3A-9052-77825121FFDC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C7C1949-C9DC-42D1-9545-162B872218BF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD73DCC6-7C48-4F53-B213-3AE0BB1D4AD0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB67F5B1-CCAB-4895-B513-B51A995DDB7F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8033A3A-BCF7-4BB8-8D82-C8133804BC5D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{771E1C19-EB26-41E1-AC2D-72FB5999D782}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A40F23C-6122-4778-885C-4188A3850831}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4528D84C-C3D7-47A8-90A5-0EBAB202F9D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{062BA5F1-C8EE-41B9-B84D-B62BE3E7B872}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D5F4CD6-5ADE-4919-ABE0-6720C54C7D88}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D3D02CF8-1A11-413B-89E8-59207F8E0363}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EDF09943-8D64-4094-A5E9-4C282FB8EB47}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF1554CD-F6D2-453B-B7AA-091FDB1AE819}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{09DB9849-D16C-4DB8-9C49-82AF6F57B480}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5356038-29FF-46C9-AB84-1FCBF83BA379}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF99F5E4-D9A3-4CB1-9336-D65C98CE83FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B83DB316-BDA6-4942-8277-58FA931BD9F7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A82DAC96-D8EA-450F-9314-4299D7CD3A7C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A74297B0-FC08-4A5D-B9DA-72E69DA61480}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38355F82-0889-41FF-B3D4-7C274D8358EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14223,7 +14223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC124D6-D57F-474B-A66C-A6E5138F1D34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C57F42-AFDB-4044-90ED-6FEF60A108D8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15482,18 +15482,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B1270A0-18C0-47D9-997B-6A1F0D039563}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69ACD9E0-AB78-4CC9-B785-D6CBC94A2C90}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{99F7AA57-4EE3-4ADF-BE01-219F81B73595}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F39B865B-75B9-4D5D-AC50-AF188E453926}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1601C6A9-7158-4164-96A5-328C43CEEEDC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{055D2800-9344-426A-89C5-E8D2E4415C84}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E17B515-29ED-4DB3-AE9A-C4AAD743FD11}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F48EA95A-26C9-497B-B0EC-1ACD55751795}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{81D6837A-60AD-49E1-9AEE-0E5738807CE0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C735B097-312B-423B-8139-02B235FA76D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84B5B780-9306-4E45-9FB7-7E80C0E57095}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E13F2D4F-5828-4DA1-81B4-0BCB10D17B8D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{894FC2DB-92EE-45B9-981C-D003A2ABAE2E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D9BAF42-D493-4649-AB44-1092CFFC5556}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BC1AE219-C492-430D-874C-F52051DDE98E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9250302B-EB9D-4D46-A99F-D1BF22AD6726}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA63A436-0557-4D69-AD98-4B834E274463}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{113321A6-B547-4D9E-8C72-9240B69C6C98}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1AF06D84-E3BF-4B3F-A6F3-AF50EF227AF3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F193D197-D019-4743-B25A-FF6998D9AA09}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F53CB1D-93E9-4659-8F45-A968ABBFF451}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD2D17EB-DD3F-4DF1-8578-C5EECE646A67}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50ACA746-8E25-4081-8653-A3A546EAF13D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C7021E2-0B76-4FE3-A130-4278D7457495}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15506,7 +15506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1F2C06-84AE-44A9-A76F-0204292821E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894D4D8F-C31F-40B0-9F75-A0F6EBDCA783}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16769,18 +16769,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{791586AB-8947-4743-8266-11CA20EB2FF7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{83F4DCF1-2ED2-4CE0-9510-4E146293DA84}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CDE15BB2-C081-44AD-99D5-B28AEB77C95E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AE9A7374-1BA6-4DA3-882B-29B8737ACBE0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C365DA6F-053D-4343-B8CC-1639105DFF89}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{305FDBC1-B23A-4262-9A70-002F435C1A3D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A48EC1B2-59D7-4807-BB68-51F652068AE8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B74BD835-2B4F-462A-B311-0BEB0E87D091}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9EC5C3B-8D85-47EB-B750-66217C109961}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{54B8B8D3-551E-4AEC-8D31-05D097B82B31}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{412DBED4-6AE0-4FBD-834B-829082ED3A12}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE5EC662-6E86-42DD-B354-48D29AA15FFB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9AD118AE-C721-4A9A-AB98-2ED76F587A50}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{823719CD-0CC5-4B6A-BF84-9F343F372DFC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4C04F9AF-DB60-4946-A447-108B4A5A2663}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C13DDC49-ABB0-43DA-85F1-1E094FB5964C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B60C200D-BCDF-4231-A777-8B5107F50849}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C6BBC57E-518E-47C6-9120-6B8BD7236AD5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE96686D-E2D3-4AC8-B10B-F8BD27A3FA92}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44FA0C17-9DC4-4BEE-B17B-35C62B009CB5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3BA6A1EE-354C-4940-908B-436E6C7C8BBE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD1981D1-6EBE-4A31-97BF-A43E7348D107}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA5FC8E3-8B13-42BF-9871-09DF9DCE8D4E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0294AD17-6842-4847-B68D-2FC775F7C011}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
